--- a/single_cell_RNA-seq_datasets.xlsx
+++ b/single_cell_RNA-seq_datasets.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Human" sheetId="1" r:id="rId1"/>
+    <sheet name="Mouse" sheetId="2" r:id="rId2"/>
+    <sheet name="Human organoid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
   <si>
     <t>Reference</t>
   </si>
@@ -259,6 +260,24 @@
   </si>
   <si>
     <t>&lt;a href="https://www.sciencedirect.com/science/article/pii/S0092867418301168"&gt;Han&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>3 and 6mons</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.nature.com/articles/nature22047"&gt;Quadrato&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sciencedirect.com/science/article/pii/S0002929718300466"&gt;Hook&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Smart-Seq2</t>
+  </si>
+  <si>
+    <t>E15.5 &amp; P7</t>
+  </si>
+  <si>
+    <t>Midbrain &amp; forebrain</t>
   </si>
 </sst>
 </file>
@@ -829,10 +848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +1005,13 @@
       <c r="E6" s="1">
         <v>156049</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
         <v>4497</v>
       </c>
     </row>
@@ -1040,6 +1065,96 @@
       </c>
       <c r="H8" s="1">
         <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>396</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>82291</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
